--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process2_RejectionPayment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2116C-B940-4835-B959-F1F655760208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609D2BBF-FB20-4093-8E57-41DAFEFFC2D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -124,22 +124,25 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
+    <t>SAGE_Path</t>
+  </si>
+  <si>
+    <t>http://10.6.163.15:8124/auth/login/page</t>
+  </si>
+  <si>
+    <t>PaymentFile_Path</t>
+  </si>
+  <si>
+    <t>DingTalk_Login</t>
+  </si>
+  <si>
+    <t>X:\(Prod) Merchant Settlement\</t>
+  </si>
+  <si>
+    <t>SAGE_LIVE</t>
+  </si>
+  <si>
     <t>SAGE_Login</t>
-  </si>
-  <si>
-    <t>SAGE_Path</t>
-  </si>
-  <si>
-    <t>http://10.6.163.15:8124/auth/login/page</t>
-  </si>
-  <si>
-    <t>PaymentFile_Path</t>
-  </si>
-  <si>
-    <t>DingTalk_Login</t>
-  </si>
-  <si>
-    <t>X:\(Prod) Merchant Settlement\</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -589,37 +592,44 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2728,7 +2738,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
